--- a/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
+++ b/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
+++ b/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="257">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.channelType</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -691,6 +694,9 @@
     <t>Extension.extension:address.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.address</t>
+  </si>
+  <si>
     <t>Extension.extension:address.value[x]</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
     <t>Extension.extension:additionalInfo.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.additionalInfo</t>
+  </si>
+  <si>
     <t>Extension.extension:additionalInfo.value[x]</t>
   </si>
   <si>
@@ -760,6 +769,9 @@
     <t>Extension.extension:maxParticipants.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.maxParticipants</t>
+  </si>
+  <si>
     <t>Extension.extension:maxParticipants.value[x]</t>
   </si>
   <si>
@@ -793,6 +805,9 @@
   </si>
   <si>
     <t>Extension.extension:sessionKey.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-VirtualServiceDetail.sessionKey</t>
   </si>
   <si>
     <t>Extension.extension:sessionKey.value[x]</t>
@@ -1947,7 +1962,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1989,7 +2004,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2004,15 +2019,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2035,7 +2050,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2094,7 +2109,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2106,21 +2121,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2145,14 +2160,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2221,7 +2236,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2324,7 +2339,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2427,13 +2442,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2458,10 +2473,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2532,10 +2547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2635,10 +2650,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2740,10 +2755,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2783,7 +2798,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2825,7 +2840,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -2840,15 +2855,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2874,13 +2889,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2888,7 +2903,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2930,7 +2945,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2942,21 +2957,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2981,16 +2996,16 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3059,10 +3074,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3162,10 +3177,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3267,10 +3282,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3310,7 +3325,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3352,7 +3367,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3367,15 +3382,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3398,16 +3413,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3433,13 +3448,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3457,7 +3472,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3469,21 +3484,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3508,16 +3523,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3586,10 +3601,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3689,10 +3704,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3794,10 +3809,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3837,7 +3852,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3879,7 +3894,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3894,15 +3909,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3925,16 +3940,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3984,7 +3999,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3996,21 +4011,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4035,14 +4050,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4111,10 +4126,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4214,10 +4229,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4319,10 +4334,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4362,7 +4377,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4404,7 +4419,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4419,15 +4434,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4450,13 +4465,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4507,7 +4522,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4519,21 +4534,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4558,16 +4573,16 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4636,10 +4651,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4739,10 +4754,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4844,10 +4859,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4887,7 +4902,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4929,7 +4944,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -4944,15 +4959,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4975,16 +4990,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5034,7 +5049,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5046,21 +5061,21 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5085,14 +5100,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5161,10 +5176,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5264,10 +5279,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5369,10 +5384,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5412,7 +5427,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5454,7 +5469,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -5469,15 +5484,15 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5500,13 +5515,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5557,7 +5572,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5569,21 +5584,21 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5608,16 +5623,16 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5686,10 +5701,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5789,10 +5804,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5894,10 +5909,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5937,7 +5952,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5979,7 +5994,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -5994,15 +6009,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6025,16 +6040,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6084,7 +6099,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6096,15 +6111,15 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6147,7 +6162,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6189,7 +6204,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6204,15 +6219,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6235,13 +6250,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6292,7 +6307,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6304,21 +6319,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6343,16 +6358,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6421,7 +6436,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6524,7 +6539,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6629,7 +6644,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6672,7 +6687,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6714,7 +6729,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -6729,15 +6744,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6760,16 +6775,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6819,7 +6834,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6831,21 +6846,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6870,16 +6885,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6948,7 +6963,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7051,7 +7066,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7156,7 +7171,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7199,7 +7214,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7241,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7256,15 +7271,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7287,16 +7302,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7346,7 +7361,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7358,21 +7373,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7397,16 +7412,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7475,7 +7490,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7578,7 +7593,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7683,7 +7698,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7726,7 +7741,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7768,7 +7783,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -7783,15 +7798,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7817,13 +7832,13 @@
         <v>87</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7873,7 +7888,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -7885,18 +7900,18 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7978,7 +7993,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
@@ -7993,15 +8008,15 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8024,13 +8039,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8081,7 +8096,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -8093,10 +8108,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
+++ b/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -521,15 +521,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:address.extension:name</t>
   </si>
   <si>
@@ -653,7 +644,7 @@
     <t>Extension.extension:address.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1164,8 +1155,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3448,13 +3439,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3492,13 +3483,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3523,16 +3514,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3601,7 +3592,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>139</v>
@@ -3704,7 +3695,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>141</v>
@@ -3809,7 +3800,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>143</v>
@@ -3852,7 +3843,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3914,7 +3905,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>146</v>
@@ -3940,16 +3931,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4019,13 +4010,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4050,14 +4041,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4126,7 +4117,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>139</v>
@@ -4229,7 +4220,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>141</v>
@@ -4334,7 +4325,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>143</v>
@@ -4377,7 +4368,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4439,7 +4430,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>146</v>
@@ -4465,13 +4456,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4542,7 +4533,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
@@ -4573,16 +4564,16 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4651,7 +4642,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>139</v>
@@ -4754,7 +4745,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>141</v>
@@ -4859,7 +4850,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>143</v>
@@ -4964,7 +4955,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>146</v>
@@ -4990,16 +4981,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5069,13 +5060,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5100,14 +5091,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5176,7 +5167,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>139</v>
@@ -5279,7 +5270,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>141</v>
@@ -5384,7 +5375,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>143</v>
@@ -5427,7 +5418,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5489,7 +5480,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>146</v>
@@ -5515,13 +5506,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5592,13 +5583,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5623,16 +5614,16 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5701,7 +5692,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>139</v>
@@ -5804,7 +5795,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>141</v>
@@ -5909,7 +5900,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>143</v>
@@ -5952,7 +5943,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6014,7 +6005,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>146</v>
@@ -6040,16 +6031,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6119,7 +6110,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6162,7 +6153,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6224,7 +6215,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6250,7 +6241,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>129</v>
@@ -6327,13 +6318,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6358,16 +6349,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6436,7 +6427,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6539,7 +6530,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6644,7 +6635,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6687,7 +6678,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6749,7 +6740,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6775,16 +6766,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6854,13 +6845,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6885,16 +6876,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6963,7 +6954,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7066,7 +7057,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7171,7 +7162,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7214,7 +7205,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7276,7 +7267,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7302,16 +7293,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7381,13 +7372,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7412,16 +7403,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7490,7 +7481,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7593,7 +7584,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7698,7 +7689,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7741,7 +7732,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7803,7 +7794,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7832,13 +7823,13 @@
         <v>87</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8039,7 +8030,7 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>147</v>

--- a/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
+++ b/StructureDefinition-ext-R5-VirtualServiceDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,6 +408,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-virtual-service-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -521,6 +530,12 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:address.extension:name</t>
   </si>
   <si>
@@ -644,7 +659,7 @@
     <t>Extension.extension:address.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1155,8 +1170,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2076,13 +2091,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2100,7 +2115,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2112,7 +2127,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2120,13 +2135,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2151,14 +2166,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2227,7 +2242,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2330,7 +2345,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2433,13 +2448,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2464,10 +2479,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2538,10 +2553,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2641,10 +2656,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2746,10 +2761,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2789,7 +2804,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2851,10 +2866,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2880,13 +2895,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2894,7 +2909,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2936,7 +2951,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2948,7 +2963,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>121</v>
@@ -2956,13 +2971,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2987,16 +3002,16 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3065,10 +3080,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3168,10 +3183,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3273,10 +3288,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3316,7 +3331,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3378,10 +3393,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3404,16 +3419,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3439,13 +3454,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3463,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3475,7 +3490,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>121</v>
@@ -3483,13 +3498,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3514,16 +3529,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3592,10 +3607,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3695,10 +3710,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3800,10 +3815,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3843,7 +3858,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3905,10 +3920,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3931,16 +3946,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3990,7 +4005,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4002,7 +4017,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>121</v>
@@ -4010,13 +4025,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4041,14 +4056,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4117,10 +4132,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4220,10 +4235,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4325,10 +4340,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4368,7 +4383,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4430,10 +4445,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4456,13 +4471,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4513,7 +4528,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4525,7 +4540,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>121</v>
@@ -4533,13 +4548,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4564,16 +4579,16 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4642,10 +4657,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4745,10 +4760,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4850,10 +4865,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4893,7 +4908,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4955,10 +4970,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4981,16 +4996,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5040,7 +5055,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5052,7 +5067,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>121</v>
@@ -5060,13 +5075,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5091,14 +5106,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5167,10 +5182,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5270,10 +5285,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5375,10 +5390,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5418,7 +5433,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5480,10 +5495,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5506,13 +5521,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5563,7 +5578,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5575,7 +5590,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>121</v>
@@ -5583,13 +5598,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5614,16 +5629,16 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5692,10 +5707,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5795,10 +5810,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5900,10 +5915,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5943,7 +5958,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6005,10 +6020,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6031,16 +6046,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6090,7 +6105,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6102,7 +6117,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6110,7 +6125,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6153,7 +6168,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6215,7 +6230,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6241,13 +6256,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6298,7 +6313,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6310,7 +6325,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>121</v>
@@ -6318,13 +6333,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6349,16 +6364,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6427,7 +6442,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6530,7 +6545,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6635,7 +6650,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6678,7 +6693,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6740,7 +6755,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6766,16 +6781,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6825,7 +6840,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6837,7 +6852,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>121</v>
@@ -6845,13 +6860,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6876,16 +6891,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6954,7 +6969,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7057,7 +7072,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7162,7 +7177,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7205,7 +7220,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7267,7 +7282,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7293,16 +7308,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7352,7 +7367,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7364,7 +7379,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>121</v>
@@ -7372,13 +7387,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7403,16 +7418,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7481,7 +7496,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7584,7 +7599,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7689,7 +7704,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7732,7 +7747,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7794,7 +7809,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7823,13 +7838,13 @@
         <v>87</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7879,7 +7894,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -7891,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -8004,10 +8019,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8030,13 +8045,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8087,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -8099,7 +8114,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>121</v>
